--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.313878</v>
+        <v>5.021024000000001</v>
       </c>
       <c r="H2">
-        <v>6.941634000000001</v>
+        <v>15.063072</v>
       </c>
       <c r="I2">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="J2">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>1.66827132983</v>
+        <v>2.787133601557333</v>
       </c>
       <c r="R2">
-        <v>15.01444196847</v>
+        <v>25.084202414016</v>
       </c>
       <c r="S2">
-        <v>0.1111551257302737</v>
+        <v>0.09737483973137707</v>
       </c>
       <c r="T2">
-        <v>0.1111551257302737</v>
+        <v>0.09737483973137707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.313878</v>
+        <v>5.021024000000001</v>
       </c>
       <c r="H3">
-        <v>6.941634000000001</v>
+        <v>15.063072</v>
       </c>
       <c r="I3">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="J3">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>7.837807433619334</v>
+        <v>17.00773300562133</v>
       </c>
       <c r="R3">
-        <v>70.540266902574</v>
+        <v>153.069597050592</v>
       </c>
       <c r="S3">
-        <v>0.5222246856105891</v>
+        <v>0.5942037635695169</v>
       </c>
       <c r="T3">
-        <v>0.5222246856105891</v>
+        <v>0.5942037635695169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.313878</v>
+        <v>5.021024000000001</v>
       </c>
       <c r="H4">
-        <v>6.941634000000001</v>
+        <v>15.063072</v>
       </c>
       <c r="I4">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="J4">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>1.103862495143334</v>
+        <v>2.667060833621334</v>
       </c>
       <c r="R4">
-        <v>9.934762456290002</v>
+        <v>24.003547502592</v>
       </c>
       <c r="S4">
-        <v>0.07354917167406712</v>
+        <v>0.09317982499389275</v>
       </c>
       <c r="T4">
-        <v>0.07354917167406712</v>
+        <v>0.09317982499389274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.313878</v>
+        <v>5.021024000000001</v>
       </c>
       <c r="H5">
-        <v>6.941634000000001</v>
+        <v>15.063072</v>
       </c>
       <c r="I5">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="J5">
-        <v>0.7249284197262358</v>
+        <v>0.805437917812573</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>0.2701444852073334</v>
+        <v>0.59190341424</v>
       </c>
       <c r="R5">
-        <v>2.431300366866</v>
+        <v>5.32713072816</v>
       </c>
       <c r="S5">
-        <v>0.0179994367113059</v>
+        <v>0.02067948951778632</v>
       </c>
       <c r="T5">
-        <v>0.0179994367113059</v>
+        <v>0.02067948951778632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.902261</v>
       </c>
       <c r="I6">
-        <v>0.09422488147756178</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="J6">
-        <v>0.09422488147756179</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>0.2168388823616666</v>
+        <v>0.1669461548397777</v>
       </c>
       <c r="R6">
-        <v>1.951549941255</v>
+        <v>1.502515393558</v>
       </c>
       <c r="S6">
-        <v>0.0144477416839497</v>
+        <v>0.005832642921103477</v>
       </c>
       <c r="T6">
-        <v>0.0144477416839497</v>
+        <v>0.005832642921103477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.902261</v>
       </c>
       <c r="I7">
-        <v>0.09422488147756178</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="J7">
-        <v>0.09422488147756179</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
         <v>1.018743997863444</v>
@@ -883,10 +883,10 @@
         <v>9.168695980771</v>
       </c>
       <c r="S7">
-        <v>0.06787781768149914</v>
+        <v>0.03559213432173701</v>
       </c>
       <c r="T7">
-        <v>0.06787781768149916</v>
+        <v>0.03559213432173701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.902261</v>
       </c>
       <c r="I8">
-        <v>0.09422488147756178</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="J8">
-        <v>0.09422488147756179</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>0.1434780454761111</v>
+        <v>0.1597539316551111</v>
       </c>
       <c r="R8">
-        <v>1.291302409285</v>
+        <v>1.437785384896</v>
       </c>
       <c r="S8">
-        <v>0.009559787966898782</v>
+        <v>0.005581366276335574</v>
       </c>
       <c r="T8">
-        <v>0.009559787966898783</v>
+        <v>0.005581366276335574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.902261</v>
       </c>
       <c r="I9">
-        <v>0.09422488147756178</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="J9">
-        <v>0.09422488147756179</v>
+        <v>0.0482448215850983</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>0.03511289033211111</v>
+        <v>0.035454345995</v>
       </c>
       <c r="R9">
-        <v>0.316016012989</v>
+        <v>0.319089113955</v>
       </c>
       <c r="S9">
-        <v>0.002339534145214163</v>
+        <v>0.001238678065922237</v>
       </c>
       <c r="T9">
-        <v>0.002339534145214163</v>
+        <v>0.001238678065922237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.561216</v>
+        <v>0.8410160000000001</v>
       </c>
       <c r="H10">
-        <v>1.683648</v>
+        <v>2.523048</v>
       </c>
       <c r="I10">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="J10">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N10">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q10">
-        <v>0.40462831776</v>
+        <v>0.4668418141493333</v>
       </c>
       <c r="R10">
-        <v>3.64165485984</v>
+        <v>4.201576327344</v>
       </c>
       <c r="S10">
-        <v>0.02695994993765501</v>
+        <v>0.01631017860331355</v>
       </c>
       <c r="T10">
-        <v>0.02695994993765501</v>
+        <v>0.01631017860331355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.561216</v>
+        <v>0.8410160000000001</v>
       </c>
       <c r="H11">
-        <v>1.683648</v>
+        <v>2.523048</v>
       </c>
       <c r="I11">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="J11">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q11">
-        <v>1.901009014592</v>
+        <v>2.848776580525334</v>
       </c>
       <c r="R11">
-        <v>17.109081131328</v>
+        <v>25.638989224728</v>
       </c>
       <c r="S11">
-        <v>0.1266621875309037</v>
+        <v>0.09952847714374215</v>
       </c>
       <c r="T11">
-        <v>0.1266621875309037</v>
+        <v>0.09952847714374213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.561216</v>
+        <v>0.8410160000000001</v>
       </c>
       <c r="H12">
-        <v>1.683648</v>
+        <v>2.523048</v>
       </c>
       <c r="I12">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="J12">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N12">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q12">
-        <v>0.2677346403200001</v>
+        <v>0.4467297575253334</v>
       </c>
       <c r="R12">
-        <v>2.40961176288</v>
+        <v>4.020567817728001</v>
       </c>
       <c r="S12">
-        <v>0.01783887133644611</v>
+        <v>0.01560751824668906</v>
       </c>
       <c r="T12">
-        <v>0.01783887133644611</v>
+        <v>0.01560751824668906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.561216</v>
+        <v>0.8410160000000001</v>
       </c>
       <c r="H13">
-        <v>1.683648</v>
+        <v>2.523048</v>
       </c>
       <c r="I13">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="J13">
-        <v>0.1758266546486371</v>
+        <v>0.1349099657534118</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N13">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q13">
-        <v>0.06552178092800001</v>
+        <v>0.09914317116000002</v>
       </c>
       <c r="R13">
-        <v>0.5896960283520001</v>
+        <v>0.8922885404400001</v>
       </c>
       <c r="S13">
-        <v>0.004365645843632314</v>
+        <v>0.003463791759667067</v>
       </c>
       <c r="T13">
-        <v>0.004365645843632314</v>
+        <v>0.003463791759667067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01602333333333333</v>
+        <v>0.07111199999999999</v>
       </c>
       <c r="H14">
-        <v>0.04807</v>
+        <v>0.213336</v>
       </c>
       <c r="I14">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="J14">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N14">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q14">
-        <v>0.01155258298333333</v>
+        <v>0.03947374971199999</v>
       </c>
       <c r="R14">
-        <v>0.10397324685</v>
+        <v>0.3552637474079999</v>
       </c>
       <c r="S14">
-        <v>0.0007697361880292532</v>
+        <v>0.00137910505964076</v>
       </c>
       <c r="T14">
-        <v>0.0007697361880292532</v>
+        <v>0.00137910505964076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01602333333333333</v>
+        <v>0.07111199999999999</v>
       </c>
       <c r="H15">
-        <v>0.04807</v>
+        <v>0.213336</v>
       </c>
       <c r="I15">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="J15">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.161911</v>
       </c>
       <c r="O15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q15">
-        <v>0.05427589575222222</v>
+        <v>0.240877938344</v>
       </c>
       <c r="R15">
-        <v>0.48848306177</v>
+        <v>2.167901445096</v>
       </c>
       <c r="S15">
-        <v>0.003616344600896707</v>
+        <v>0.008415617618030799</v>
       </c>
       <c r="T15">
-        <v>0.003616344600896707</v>
+        <v>0.008415617618030799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01602333333333333</v>
+        <v>0.07111199999999999</v>
       </c>
       <c r="H16">
-        <v>0.04807</v>
+        <v>0.213336</v>
       </c>
       <c r="I16">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="J16">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N16">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q16">
-        <v>0.007644118105555557</v>
+        <v>0.037773177344</v>
       </c>
       <c r="R16">
-        <v>0.06879706295000002</v>
+        <v>0.339958596096</v>
       </c>
       <c r="S16">
-        <v>0.0005093193738495009</v>
+        <v>0.001319691703319024</v>
       </c>
       <c r="T16">
-        <v>0.0005093193738495009</v>
+        <v>0.001319691703319024</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01602333333333333</v>
+        <v>0.07111199999999999</v>
       </c>
       <c r="H17">
-        <v>0.04807</v>
+        <v>0.213336</v>
       </c>
       <c r="I17">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="J17">
-        <v>0.005020044147565278</v>
+        <v>0.01140729484891681</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N17">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q17">
-        <v>0.001870718825555556</v>
+        <v>0.00838303812</v>
       </c>
       <c r="R17">
-        <v>0.01683646943</v>
+        <v>0.07544734307999999</v>
       </c>
       <c r="S17">
-        <v>0.0001246439847898167</v>
+        <v>0.0002928804679262279</v>
       </c>
       <c r="T17">
-        <v>0.0001246439847898167</v>
+        <v>0.0002928804679262279</v>
       </c>
     </row>
   </sheetData>
